--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50703.29317404372</v>
+        <v>44288.25862554102</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32047210.47132293</v>
+        <v>32047210.47132292</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9427692.440355757</v>
+        <v>9427692.440355759</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>412.3130487435869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>405.4164878341365</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.000066560756421</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>126.2936092123756</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>243.6700441992313</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>383.3590907834186</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>82.55000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>84.53123883647795</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>97.80704814122787</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>2.64478579710259</v>
+        <v>241.4107614591857</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>72.21462998383448</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>403.8643073193109</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.553567514357</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>19.45668630293684</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>148.4456792127215</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.122498409159</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>147.1022126635735</v>
       </c>
       <c r="T13" t="n">
         <v>240.8348570146258</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>351.2392332522687</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>396.0346945768795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>272.4217836655541</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.9606135828359</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>75.82394989207035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.122498409159</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.1022126635735</v>
       </c>
       <c r="T16" t="n">
         <v>240.8348570146258</v>
@@ -1824,16 +1824,16 @@
         <v>275.615660591221</v>
       </c>
       <c r="V16" t="n">
-        <v>202.8669622578512</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>147.9683615193848</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>47.76122242300962</v>
       </c>
       <c r="T17" t="n">
-        <v>23.24308689958719</v>
+        <v>211.1326232836796</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5070152299372</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>32.58072973118775</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2004,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>132.3681513475155</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>67.022241315385</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.6891291445258</v>
+        <v>91.07226079352311</v>
       </c>
       <c r="U19" t="n">
         <v>275.6110326951373</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>159.1746055359845</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>170.8990788443367</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.2453314124761</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>227.2798921336571</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6110326951373</v>
+        <v>152.299754630032</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>315.1723433222105</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>124.9554984777218</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>296.144676542521</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>202.9938507929472</v>
       </c>
     </row>
     <row r="27">
@@ -2721,16 +2721,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>41.55910715361583</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>98.79109436490731</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>245.6156953657334</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2961,13 +2961,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>99.88620450708549</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>123.9636109289957</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>31.94347283278623</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -3085,13 +3085,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>163.9844059346234</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.47781416967008</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>74.09481472768256</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>158.6851702988639</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>23.92542949176503</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.922153605885</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1784694210818952</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>36.16739218089744</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>49.34995949258636</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>175.0001618277448</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3742,13 +3742,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>149.6157531058527</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>197.0558597579918</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>86.38976318987949</v>
       </c>
       <c r="E43" t="n">
-        <v>31.6677553097656</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>223.7325170127422</v>
       </c>
       <c r="F44" t="n">
-        <v>368.5724630577456</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>8.779889315104606</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>58.91985631077941</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.94366860160834</v>
+        <v>443.4552724744735</v>
       </c>
       <c r="C2" t="n">
         <v>33.94366860160834</v>
@@ -4333,16 +4333,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>450.4214956153326</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>450.4214956153326</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y2" t="n">
-        <v>450.4214956153326</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4087263891149</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4087263891149</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4497,10 +4497,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8890703687</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.4693996828083</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>890.8095618279922</v>
+        <v>707.942455969402</v>
       </c>
       <c r="C5" t="n">
-        <v>462.2278875652606</v>
+        <v>707.942455969402</v>
       </c>
       <c r="D5" t="n">
-        <v>462.2278875652606</v>
+        <v>707.942455969402</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.952025248681</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X5" t="n">
-        <v>890.8095618279922</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y5" t="n">
-        <v>890.8095618279922</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="6">
@@ -4664,7 +4664,7 @@
         <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>619.1058988211928</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>619.1058988211928</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>619.1058988211928</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>449.3478950719301</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>272.6408410336862</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4731,16 +4731,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>619.1058988211928</v>
       </c>
       <c r="Y7" t="n">
-        <v>141.0776450162207</v>
+        <v>619.1058988211928</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>464.8993883704147</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C8" t="n">
-        <v>464.8993883704147</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="D8" t="n">
-        <v>464.8993883704147</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="E8" t="n">
-        <v>464.8993883704147</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="F8" t="n">
-        <v>37.03195877962247</v>
+        <v>277.7929226007859</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4886,10 +4886,10 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
         <v>804.6185656731816</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4968,46 +4968,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>873.1855120707613</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="C11" t="n">
-        <v>873.1855120707613</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="D11" t="n">
-        <v>873.1855120707613</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E11" t="n">
-        <v>444.6038378080297</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F11" t="n">
         <v>33.94366860160834</v>
@@ -5044,19 +5044,19 @@
         <v>198.3915302050083</v>
       </c>
       <c r="K11" t="n">
-        <v>368.2933687921386</v>
+        <v>368.2933687921387</v>
       </c>
       <c r="L11" t="n">
-        <v>579.0716233077372</v>
+        <v>579.0716233077374</v>
       </c>
       <c r="M11" t="n">
-        <v>813.603044078056</v>
+        <v>813.6030440780561</v>
       </c>
       <c r="N11" t="n">
         <v>1051.92942843149</v>
       </c>
       <c r="O11" t="n">
-        <v>1276.974275035834</v>
+        <v>1276.974275035835</v>
       </c>
       <c r="P11" t="n">
         <v>1469.044845016103</v>
@@ -5080,13 +5080,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>873.1855120707613</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y11" t="n">
-        <v>873.1855120707613</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>84.61243668840937</v>
       </c>
       <c r="J12" t="n">
-        <v>476.6890227767063</v>
+        <v>476.1060756401154</v>
       </c>
       <c r="K12" t="n">
-        <v>592.0884851847555</v>
+        <v>591.5055380481646</v>
       </c>
       <c r="L12" t="n">
-        <v>747.2573035705685</v>
+        <v>746.6743564339777</v>
       </c>
       <c r="M12" t="n">
-        <v>928.3319957864742</v>
+        <v>927.7490486498834</v>
       </c>
       <c r="N12" t="n">
-        <v>1114.199196300772</v>
+        <v>1113.616249164181</v>
       </c>
       <c r="O12" t="n">
-        <v>1284.231372666295</v>
+        <v>1283.648425529704</v>
       </c>
       <c r="P12" t="n">
-        <v>1420.697184501089</v>
+        <v>1420.114237364499</v>
       </c>
       <c r="Q12" t="n">
-        <v>1511.920965741382</v>
+        <v>1511.338018604792</v>
       </c>
       <c r="R12" t="n">
         <v>1672.881462148471</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>230.3039411276671</v>
+        <v>826.5536772942855</v>
       </c>
       <c r="C13" t="n">
-        <v>210.6507226398521</v>
+        <v>653.9919657775105</v>
       </c>
       <c r="D13" t="n">
-        <v>210.6507226398521</v>
+        <v>488.1139729790332</v>
       </c>
       <c r="E13" t="n">
-        <v>210.6507226398521</v>
+        <v>318.3559692297704</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>168.41083871187</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>168.41083871187</v>
       </c>
       <c r="H13" t="n">
         <v>33.94366860160834</v>
@@ -5199,25 +5199,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>76.30245582865298</v>
+        <v>149.7617991849112</v>
       </c>
       <c r="K13" t="n">
-        <v>420.669409919093</v>
+        <v>219.3702987042156</v>
       </c>
       <c r="L13" t="n">
-        <v>840.7223088639962</v>
+        <v>308.4452127213286</v>
       </c>
       <c r="M13" t="n">
-        <v>934.6393164705195</v>
+        <v>728.4981116662319</v>
       </c>
       <c r="N13" t="n">
-        <v>1026.323187550993</v>
+        <v>1148.551010611135</v>
       </c>
       <c r="O13" t="n">
-        <v>1111.00808195836</v>
+        <v>1568.603909556039</v>
       </c>
       <c r="P13" t="n">
-        <v>1530.977532861786</v>
+        <v>1641.066466489124</v>
       </c>
       <c r="Q13" t="n">
         <v>1691.235784882888</v>
@@ -5226,25 +5226,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1548.595336480848</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.915897742412</v>
+        <v>1305.327804142842</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.915897742412</v>
+        <v>1305.327804142842</v>
       </c>
       <c r="V13" t="n">
-        <v>1166.960389612842</v>
+        <v>1018.372296013273</v>
       </c>
       <c r="W13" t="n">
-        <v>894.9339851991335</v>
+        <v>1018.372296013273</v>
       </c>
       <c r="X13" t="n">
-        <v>649.542230532546</v>
+        <v>1018.372296013273</v>
       </c>
       <c r="Y13" t="n">
-        <v>422.1225598466543</v>
+        <v>1018.372296013273</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>433.9787136287594</v>
+        <v>1063.939336778075</v>
       </c>
       <c r="C14" t="n">
-        <v>433.9787136287594</v>
+        <v>1063.939336778075</v>
       </c>
       <c r="D14" t="n">
-        <v>433.9787136287594</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="E14" t="n">
-        <v>433.9787136287594</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="F14" t="n">
-        <v>433.9787136287594</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160835</v>
+        <v>309.1171874557034</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160835</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
         <v>85.02847154687571</v>
@@ -5302,28 +5302,28 @@
         <v>1613.28184409613</v>
       </c>
       <c r="R14" t="n">
-        <v>1697.183430080418</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080418</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080418</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080418</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252773</v>
+        <v>1483.081800198765</v>
       </c>
       <c r="X14" t="n">
-        <v>510.568562004588</v>
+        <v>1063.939336778075</v>
       </c>
       <c r="Y14" t="n">
-        <v>433.9787136287594</v>
+        <v>1063.939336778075</v>
       </c>
     </row>
     <row r="15">
@@ -5339,43 +5339,43 @@
         <v>425.8876954122217</v>
       </c>
       <c r="D15" t="n">
-        <v>330.797406558775</v>
+        <v>330.7974065587749</v>
       </c>
       <c r="E15" t="n">
-        <v>236.6769918857287</v>
+        <v>236.6769918857286</v>
       </c>
       <c r="F15" t="n">
         <v>153.2931535018903</v>
       </c>
       <c r="G15" t="n">
-        <v>68.63721874747719</v>
+        <v>68.63721874747718</v>
       </c>
       <c r="H15" t="n">
-        <v>33.94366860160835</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>84.61243668840937</v>
+        <v>58.54876352795178</v>
       </c>
       <c r="J15" t="n">
-        <v>152.130697810494</v>
+        <v>450.6253496162486</v>
       </c>
       <c r="K15" t="n">
-        <v>572.1835967553973</v>
+        <v>566.0248120242978</v>
       </c>
       <c r="L15" t="n">
-        <v>746.6743564339777</v>
+        <v>721.1936304101108</v>
       </c>
       <c r="M15" t="n">
-        <v>927.7490486498834</v>
+        <v>902.2683226260165</v>
       </c>
       <c r="N15" t="n">
-        <v>1113.616249164181</v>
+        <v>1088.135523140314</v>
       </c>
       <c r="O15" t="n">
-        <v>1283.648425529704</v>
+        <v>1258.167699505837</v>
       </c>
       <c r="P15" t="n">
-        <v>1420.114237364499</v>
+        <v>1394.633511340632</v>
       </c>
       <c r="Q15" t="n">
         <v>1511.338018604792</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160835</v>
+        <v>345.1178927501138</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160835</v>
+        <v>345.1178927501138</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160835</v>
+        <v>345.1178927501138</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160835</v>
+        <v>345.1178927501138</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160835</v>
+        <v>168.41083871187</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160835</v>
+        <v>168.41083871187</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160835</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I16" t="n">
-        <v>33.94366860160835</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>76.302455828653</v>
+        <v>162.8821409933428</v>
       </c>
       <c r="K16" t="n">
-        <v>145.9109553479574</v>
+        <v>383.9365713140597</v>
       </c>
       <c r="L16" t="n">
-        <v>565.9638542928607</v>
+        <v>803.9894702589629</v>
       </c>
       <c r="M16" t="n">
-        <v>986.016753237764</v>
+        <v>1224.042369203866</v>
       </c>
       <c r="N16" t="n">
-        <v>1406.069652182667</v>
+        <v>1315.72624028434</v>
       </c>
       <c r="O16" t="n">
-        <v>1568.603909556039</v>
+        <v>1400.411134691706</v>
       </c>
       <c r="P16" t="n">
-        <v>1641.066466489124</v>
+        <v>1472.873691624791</v>
       </c>
       <c r="Q16" t="n">
         <v>1691.235784882888</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080418</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080418</v>
+        <v>1548.595336480848</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.915897742412</v>
+        <v>1305.327804142842</v>
       </c>
       <c r="U16" t="n">
-        <v>1175.516240579562</v>
+        <v>1026.928146979993</v>
       </c>
       <c r="V16" t="n">
-        <v>970.6001170867833</v>
+        <v>739.9726388504232</v>
       </c>
       <c r="W16" t="n">
-        <v>698.5737126730747</v>
+        <v>590.5096474167012</v>
       </c>
       <c r="X16" t="n">
-        <v>453.1819580064872</v>
+        <v>345.1178927501138</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.7622873205955</v>
+        <v>345.1178927501138</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>476.8460822432901</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="C17" t="n">
         <v>38.70360942671341</v>
@@ -5512,7 +5512,7 @@
         <v>38.70360942671341</v>
       </c>
       <c r="I17" t="n">
-        <v>97.00757514711323</v>
+        <v>97.00757514711314</v>
       </c>
       <c r="J17" t="n">
         <v>226.2636995360255</v>
@@ -5542,25 +5542,25 @@
         <v>1935.180471335671</v>
       </c>
       <c r="S17" t="n">
-        <v>1935.180471335671</v>
+        <v>1886.93681232253</v>
       </c>
       <c r="T17" t="n">
-        <v>1911.702605780532</v>
+        <v>1673.671536278409</v>
       </c>
       <c r="U17" t="n">
-        <v>1652.604610598777</v>
+        <v>1673.671536278409</v>
       </c>
       <c r="V17" t="n">
-        <v>1289.987660532604</v>
+        <v>1311.054586212235</v>
       </c>
       <c r="W17" t="n">
-        <v>885.1322059436367</v>
+        <v>906.1991316232686</v>
       </c>
       <c r="X17" t="n">
-        <v>885.1322059436367</v>
+        <v>873.2893036119679</v>
       </c>
       <c r="Y17" t="n">
-        <v>476.8460822432901</v>
+        <v>465.0031799116212</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>38.70360942671341</v>
       </c>
       <c r="I18" t="n">
-        <v>92.82191738660249</v>
+        <v>66.75824422614488</v>
       </c>
       <c r="J18" t="n">
-        <v>169.8059795795392</v>
+        <v>143.7423064190816</v>
       </c>
       <c r="K18" t="n">
-        <v>301.3840037082868</v>
+        <v>275.3203305478292</v>
       </c>
       <c r="L18" t="n">
-        <v>478.3068948861027</v>
+        <v>452.2432217256451</v>
       </c>
       <c r="M18" t="n">
-        <v>684.7675639769506</v>
+        <v>658.703890816493</v>
       </c>
       <c r="N18" t="n">
-        <v>896.6926326357386</v>
+        <v>870.6289594752811</v>
       </c>
       <c r="O18" t="n">
-        <v>1090.562667535708</v>
+        <v>1064.49899437525</v>
       </c>
       <c r="P18" t="n">
-        <v>1246.160462427128</v>
+        <v>1220.096789266671</v>
       </c>
       <c r="Q18" t="n">
-        <v>1506.470319798844</v>
+        <v>1623.643097893183</v>
       </c>
       <c r="R18" t="n">
         <v>1674.234360341687</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>211.2653209434885</v>
+        <v>586.5731042474529</v>
       </c>
       <c r="C19" t="n">
-        <v>38.70360942671341</v>
+        <v>586.5731042474529</v>
       </c>
       <c r="D19" t="n">
-        <v>38.70360942671341</v>
+        <v>586.5731042474529</v>
       </c>
       <c r="E19" t="n">
-        <v>38.70360942671341</v>
+        <v>416.8151004981901</v>
       </c>
       <c r="F19" t="n">
-        <v>38.70360942671341</v>
+        <v>240.1080464599463</v>
       </c>
       <c r="G19" t="n">
-        <v>38.70360942671341</v>
+        <v>240.1080464599463</v>
       </c>
       <c r="H19" t="n">
-        <v>38.70360942671341</v>
+        <v>106.4028430786175</v>
       </c>
       <c r="I19" t="n">
         <v>38.70360942671341</v>
@@ -5679,19 +5679,19 @@
         <v>166.3682800388524</v>
       </c>
       <c r="L19" t="n">
-        <v>267.9311551271883</v>
+        <v>645.3254466944309</v>
       </c>
       <c r="M19" t="n">
-        <v>746.8883217827668</v>
+        <v>752.4092583092147</v>
       </c>
       <c r="N19" t="n">
-        <v>1225.845488438345</v>
+        <v>1231.366424964793</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.438877978459</v>
+        <v>1710.323591620371</v>
       </c>
       <c r="P19" t="n">
-        <v>1700.060407278644</v>
+        <v>1868.253182142976</v>
       </c>
       <c r="Q19" t="n">
         <v>1925.456046423193</v>
@@ -5703,22 +5703,22 @@
         <v>1935.180471335671</v>
       </c>
       <c r="T19" t="n">
-        <v>1713.272260078574</v>
+        <v>1843.18828871595</v>
       </c>
       <c r="U19" t="n">
-        <v>1434.877277558233</v>
+        <v>1564.79330619561</v>
       </c>
       <c r="V19" t="n">
-        <v>1147.921769428663</v>
+        <v>1277.83779806604</v>
       </c>
       <c r="W19" t="n">
-        <v>875.8953650149549</v>
+        <v>1005.811393652332</v>
       </c>
       <c r="X19" t="n">
-        <v>630.5036103483674</v>
+        <v>1005.811393652332</v>
       </c>
       <c r="Y19" t="n">
-        <v>403.0839396624756</v>
+        <v>778.3917229664401</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1774.398041501343</v>
+        <v>1336.255568684766</v>
       </c>
       <c r="C20" t="n">
         <v>1336.255568684766</v>
@@ -5749,19 +5749,19 @@
         <v>38.70360942671341</v>
       </c>
       <c r="I20" t="n">
-        <v>97.00757514711304</v>
+        <v>97.00757514711314</v>
       </c>
       <c r="J20" t="n">
-        <v>226.2636995360253</v>
+        <v>226.2636995360255</v>
       </c>
       <c r="K20" t="n">
-        <v>419.9851238013147</v>
+        <v>419.9851238013148</v>
       </c>
       <c r="L20" t="n">
-        <v>660.3136806225141</v>
+        <v>660.3136806225143</v>
       </c>
       <c r="M20" t="n">
-        <v>927.7255064415051</v>
+        <v>927.7255064415053</v>
       </c>
       <c r="N20" t="n">
         <v>1199.464335172704</v>
@@ -5785,19 +5785,19 @@
         <v>1935.180471335671</v>
       </c>
       <c r="U20" t="n">
-        <v>1774.398041501343</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="V20" t="n">
-        <v>1774.398041501343</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="W20" t="n">
-        <v>1774.398041501343</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="X20" t="n">
-        <v>1774.398041501343</v>
+        <v>1762.555139169674</v>
       </c>
       <c r="Y20" t="n">
-        <v>1774.398041501343</v>
+        <v>1762.555139169674</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>66.75824422614488</v>
       </c>
       <c r="J21" t="n">
-        <v>443.2756097968492</v>
+        <v>143.7423064190816</v>
       </c>
       <c r="K21" t="n">
-        <v>574.8536339255967</v>
+        <v>275.3203305478292</v>
       </c>
       <c r="L21" t="n">
-        <v>751.7765251034126</v>
+        <v>452.2432217256451</v>
       </c>
       <c r="M21" t="n">
-        <v>958.2371941942604</v>
+        <v>658.703890816493</v>
       </c>
       <c r="N21" t="n">
-        <v>1170.162262853049</v>
+        <v>870.6289594752811</v>
       </c>
       <c r="O21" t="n">
-        <v>1364.032297753018</v>
+        <v>1064.49899437525</v>
       </c>
       <c r="P21" t="n">
-        <v>1519.630092644438</v>
+        <v>1220.096789266671</v>
       </c>
       <c r="Q21" t="n">
         <v>1623.643097893183</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>203.5978835807297</v>
+        <v>557.730378730995</v>
       </c>
       <c r="C22" t="n">
-        <v>203.5978835807297</v>
+        <v>385.16866721422</v>
       </c>
       <c r="D22" t="n">
-        <v>203.5978835807297</v>
+        <v>385.16866721422</v>
       </c>
       <c r="E22" t="n">
-        <v>203.5978835807297</v>
+        <v>215.4106634649572</v>
       </c>
       <c r="F22" t="n">
-        <v>203.5978835807297</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="G22" t="n">
         <v>38.70360942671341</v>
@@ -5910,25 +5910,25 @@
         <v>38.70360942671341</v>
       </c>
       <c r="J22" t="n">
-        <v>173.580621212535</v>
+        <v>87.00093604784513</v>
       </c>
       <c r="K22" t="n">
-        <v>527.7064197746778</v>
+        <v>166.3682800388524</v>
       </c>
       <c r="L22" t="n">
-        <v>629.2692948630137</v>
+        <v>348.7601528760564</v>
       </c>
       <c r="M22" t="n">
-        <v>1041.924319744463</v>
+        <v>827.7173195316349</v>
       </c>
       <c r="N22" t="n">
-        <v>1520.881486400041</v>
+        <v>1306.674486187213</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.438877978459</v>
+        <v>1785.631652842792</v>
       </c>
       <c r="P22" t="n">
-        <v>1700.060407278644</v>
+        <v>1868.253182142976</v>
       </c>
       <c r="Q22" t="n">
         <v>1925.456046423193</v>
@@ -5940,22 +5940,22 @@
         <v>1935.180471335671</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.604822715815</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="U22" t="n">
-        <v>1427.209840195474</v>
+        <v>1781.342335345739</v>
       </c>
       <c r="V22" t="n">
-        <v>1140.254332065904</v>
+        <v>1494.38682721617</v>
       </c>
       <c r="W22" t="n">
-        <v>868.2279276521961</v>
+        <v>1222.360422802461</v>
       </c>
       <c r="X22" t="n">
-        <v>622.8361729856085</v>
+        <v>976.9686681358739</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.4165022997168</v>
+        <v>749.5489974499822</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
         <v>276.0532770435809</v>
@@ -5995,7 +5995,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6010,31 +6010,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.256885969251</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W23" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X23" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y23" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="24">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.655226289377</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C25" t="n">
-        <v>299.093514772602</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D25" t="n">
-        <v>133.2155219741246</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E25" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
         <v>47.20655154895474</v>
@@ -6147,25 +6147,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M25" t="n">
-        <v>1236.93553127931</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N25" t="n">
-        <v>1364.434443083199</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774552</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X25" t="n">
-        <v>890.8935156942559</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083642</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1173.712709371907</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C26" t="n">
-        <v>1173.712709371907</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D26" t="n">
-        <v>1173.712709371907</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V26" t="n">
-        <v>1997.710627381563</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W26" t="n">
-        <v>1592.855172792597</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X26" t="n">
-        <v>1173.712709371907</v>
+        <v>921.4750880558169</v>
       </c>
       <c r="Y26" t="n">
-        <v>1173.712709371907</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
         <v>551.5786779960906</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.655226289377</v>
+        <v>894.468396736399</v>
       </c>
       <c r="C28" t="n">
-        <v>299.093514772602</v>
+        <v>721.9066852196239</v>
       </c>
       <c r="D28" t="n">
-        <v>133.2155219741246</v>
+        <v>556.0286924211466</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895474</v>
+        <v>386.2706886718839</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
         <v>47.20655154895474</v>
@@ -6384,25 +6384,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>189.2938360041734</v>
       </c>
       <c r="K28" t="n">
-        <v>358.0754347909399</v>
+        <v>286.0939365717316</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092378</v>
+        <v>828.1746199579906</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774552</v>
+        <v>1831.124845221574</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360843</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X28" t="n">
-        <v>890.8935156942559</v>
+        <v>1313.706686141278</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083642</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1592.855172792597</v>
+        <v>546.4982270764547</v>
       </c>
       <c r="C29" t="n">
-        <v>1592.855172792597</v>
+        <v>546.4982270764547</v>
       </c>
       <c r="D29" t="n">
-        <v>1156.945387967041</v>
+        <v>546.4982270764547</v>
       </c>
       <c r="E29" t="n">
-        <v>723.1706431253363</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F29" t="n">
-        <v>295.303213534544</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>295.303213534544</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6484,7 +6484,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
@@ -6493,22 +6493,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V29" t="n">
-        <v>1997.710627381563</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W29" t="n">
-        <v>1592.855172792597</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X29" t="n">
-        <v>1592.855172792597</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="Y29" t="n">
-        <v>1592.855172792597</v>
+        <v>972.7977975613625</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C31" t="n">
-        <v>616.081764785142</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D31" t="n">
-        <v>450.2037719866647</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E31" t="n">
-        <v>280.445768237402</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F31" t="n">
-        <v>179.5506121696388</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G31" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H31" t="n">
         <v>47.20655154895474</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.76150051161</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="C32" t="n">
-        <v>882.6190276950331</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="D32" t="n">
-        <v>446.7092428694776</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E32" t="n">
-        <v>446.7092428694776</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F32" t="n">
         <v>446.7092428694776</v>
@@ -6697,19 +6697,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
@@ -6733,19 +6733,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.402314586987</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W32" t="n">
-        <v>1320.76150051161</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X32" t="n">
-        <v>1320.76150051161</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="Y32" t="n">
-        <v>1320.76150051161</v>
+        <v>1340.617551476506</v>
       </c>
     </row>
     <row r="33">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>320.0013704257355</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L34" t="n">
-        <v>862.0820538119945</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M34" t="n">
-        <v>992.6864461505238</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N34" t="n">
-        <v>1120.185357954413</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527957</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1937.514407000715</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1650.558898871145</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W34" t="n">
-        <v>1378.532494457437</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X34" t="n">
-        <v>1378.532494457437</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1355.033554032792</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C35" t="n">
-        <v>916.8910812162151</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D35" t="n">
-        <v>480.9812963906596</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E35" t="n">
         <v>47.20655154895474</v>
@@ -6934,16 +6934,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6958,7 +6958,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
@@ -6973,16 +6973,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V35" t="n">
-        <v>1774.176017453481</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W35" t="n">
-        <v>1774.176017453481</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X35" t="n">
-        <v>1355.033554032792</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y35" t="n">
-        <v>1355.033554032792</v>
+        <v>921.2588091910869</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.0944902899325</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C37" t="n">
-        <v>554.5327787731575</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6547859746801</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E37" t="n">
-        <v>388.6547859746801</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F37" t="n">
-        <v>211.9477319364363</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>601.5415720081296</v>
       </c>
       <c r="M37" t="n">
-        <v>1690.512214359095</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N37" t="n">
-        <v>1887.361501150536</v>
+        <v>1755.480362387979</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2229.093078855934</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2229.093078855934</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1950.706446904677</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1663.750938775107</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W37" t="n">
-        <v>1391.724534361399</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X37" t="n">
-        <v>1146.332779694812</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>918.9131090089197</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>884.8517156860543</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="C38" t="n">
-        <v>446.7092428694776</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D38" t="n">
-        <v>446.7092428694776</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E38" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J38" t="n">
         <v>276.0532770435808</v>
@@ -7210,16 +7210,16 @@
         <v>2060.790516184048</v>
       </c>
       <c r="V38" t="n">
-        <v>1698.173566117875</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="W38" t="n">
-        <v>1293.318111528908</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="X38" t="n">
-        <v>1293.318111528908</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="Y38" t="n">
-        <v>885.0319878285612</v>
+        <v>2024.257796809404</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>959.9477806029472</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C40" t="n">
-        <v>787.3860690861721</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D40" t="n">
-        <v>621.5080762876948</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E40" t="n">
-        <v>451.7500725384321</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>275.0430185001883</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
@@ -7338,13 +7338,13 @@
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092383</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O40" t="n">
         <v>2173.32015736263</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2310.479133515832</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>2068.231909419238</v>
       </c>
       <c r="U40" t="n">
-        <v>2183.559737217692</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V40" t="n">
-        <v>1896.604229088122</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W40" t="n">
-        <v>1624.577824674414</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X40" t="n">
-        <v>1379.186070007826</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y40" t="n">
-        <v>1151.766399321934</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>910.9837659653025</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>910.9837659653025</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>475.073981139747</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
         <v>475.073981139747</v>
@@ -7408,16 +7408,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,7 +7432,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V41" t="n">
-        <v>2161.281254459866</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W41" t="n">
-        <v>1756.425799870899</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X41" t="n">
-        <v>1337.28333645021</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y41" t="n">
-        <v>1337.28333645021</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="42">
@@ -7548,37 +7548,37 @@
         <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>616.081764785142</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
-        <v>616.081764785142</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>295.9524490360518</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L43" t="n">
-        <v>419.8232506543497</v>
+        <v>862.0820538119945</v>
       </c>
       <c r="M43" t="n">
-        <v>550.4276429928792</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N43" t="n">
         <v>1120.185357954413</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1526.86868437219</v>
+        <v>1100.569113887282</v>
       </c>
       <c r="C44" t="n">
-        <v>1088.726211555613</v>
+        <v>1100.569113887282</v>
       </c>
       <c r="D44" t="n">
-        <v>1088.726211555613</v>
+        <v>1100.569113887282</v>
       </c>
       <c r="E44" t="n">
-        <v>1088.726211555613</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
@@ -7648,10 +7648,10 @@
         <v>118.4065018001357</v>
       </c>
       <c r="J44" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
         <v>805.4408022867027</v>
@@ -7669,7 +7669,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
@@ -7709,13 +7709,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
         <v>79.1492015823585</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>985.9288547996787</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C46" t="n">
-        <v>813.3671432829036</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895474</v>
@@ -7812,16 +7812,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>828.1746199579906</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M46" t="n">
-        <v>1412.355695376305</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180195</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527957</v>
+        <v>1959.82592890043</v>
       </c>
       <c r="P46" t="n">
         <v>2105.896438675982</v>
@@ -7845,13 +7845,13 @@
         <v>1650.558898871145</v>
       </c>
       <c r="W46" t="n">
-        <v>1650.558898871145</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X46" t="n">
-        <v>1405.167144204558</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y46" t="n">
-        <v>1177.747473518666</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8145,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8379,19 +8379,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8534,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8616,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.247856393557</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>117.7675060179286</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.20135692551334</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>334.3211968967578</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>329.430193271091</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>331.6858867317474</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>338.7555601389261</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>111.2009430579164</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>307.7307439766203</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>19.5171124169367</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>25.7381070948154</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>152.9756876781944</v>
       </c>
       <c r="L16" t="n">
         <v>334.3211968967578</v>
@@ -9096,16 +9096,16 @@
         <v>329.4301932710911</v>
       </c>
       <c r="N16" t="n">
-        <v>331.6858867317472</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>78.63572016768163</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>157.8756082050202</v>
+        <v>302.5588923007749</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,22 +9327,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>381.2063551184269</v>
       </c>
       <c r="M19" t="n">
-        <v>375.6296515563582</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>378.201584582734</v>
       </c>
       <c r="O19" t="n">
-        <v>298.0161595572688</v>
+        <v>386.2623990678389</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>76.06874870951538</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>302.5588923007754</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>302.5588923007749</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>81.64545227158396</v>
       </c>
       <c r="M22" t="n">
-        <v>308.6577911784498</v>
+        <v>375.6296515563582</v>
       </c>
       <c r="N22" t="n">
-        <v>378.201584582734</v>
+        <v>378.2015845827341</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>386.2623990678389</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>177.1920849464602</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>84.02183914448032</v>
       </c>
       <c r="K28" t="n">
-        <v>69.27619576520601</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>458.1582657371571</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>30.81754489126217</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
-        <v>70.05088382580948</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>303.1049632594847</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>458.1582657371571</v>
@@ -10995,7 +10995,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>6.525705103702933</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>263.1722038422878</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11460,19 +11460,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>141.4680432173446</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>45.75904403825098</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.723526036471753</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>28.34456025427443</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -22600,22 +22600,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.9003659710408</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -22713,19 +22713,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>41.76681449939451</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -22773,7 +22773,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>185.7669531940564</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>17.44780925965841</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -22950,16 +22950,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>66.12831408320274</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23029,19 +23029,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>394.7390672658661</v>
+        <v>155.973091603783</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>170.7232071360872</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23263,13 +23263,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>27.68637965798899</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>17.03518778052728</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>396.0346945768795</v>
@@ -23320,13 +23320,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>151.3794080986705</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>26.49430428513986</v>
       </c>
       <c r="G13" t="n">
         <v>163.3301761740106</v>
       </c>
       <c r="H13" t="n">
-        <v>133.122498409159</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>69.57375468953282</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.1022126635735</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>80.31145372503119</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>272.4217836655541</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>52.07140607624191</v>
       </c>
       <c r="T14" t="n">
-        <v>211.9606135828359</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.5221469772661</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>328.3793125712727</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23664,13 +23664,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.3301761740106</v>
       </c>
       <c r="H16" t="n">
-        <v>133.122498409159</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>69.57375468953282</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.1022126635735</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>81.21899079042265</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>121.3377788501866</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.76122242300962</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>187.8895363840925</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5070152299372</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>382.3703090552946</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.2453314124761</v>
       </c>
       <c r="H19" t="n">
-        <v>132.3681513475155</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>67.022241315385</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>145.6235998648307</v>
       </c>
       <c r="T19" t="n">
-        <v>20.7832093435433</v>
+        <v>149.400077694546</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>211.1326232836796</v>
       </c>
       <c r="U20" t="n">
-        <v>97.33240969395266</v>
+        <v>256.5070152299372</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>244.0519599421457</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.2453314124761</v>
       </c>
       <c r="H22" t="n">
         <v>132.3681513475155</v>
@@ -24180,10 +24180,10 @@
         <v>145.6235998648307</v>
       </c>
       <c r="T22" t="n">
-        <v>13.19244635441204</v>
+        <v>240.4723384880691</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>123.3112780651053</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>43.81843724330128</v>
+        <v>249.4367335470099</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.02677463308606</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>133.2923208507667</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>201.2094116703959</v>
       </c>
     </row>
     <row r="27">
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>133.3808763442455</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>330.6459030283804</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>21.4086405757953</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -24748,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>75.05377899077584</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>145.3425294405756</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,16 +24919,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>399.6072141445137</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>236.8224941084536</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>131.6676598093627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>284.8959658378292</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>245.5180921644792</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>140.2937833787275</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>13.06011950492284</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.8581053589768</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>322.8233883846143</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>93.63231361822146</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>100.6026038039996</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>60.03778590972618</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>161.9349208075199</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>77.82944968061304</v>
       </c>
       <c r="E43" t="n">
-        <v>136.3926684020045</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>205.7044803805456</v>
       </c>
       <c r="F44" t="n">
-        <v>55.01629223713877</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.1205432166926</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>105.2993565597131</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>361705.280141448</v>
+        <v>361705.2801414479</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>323921.5984645563</v>
+        <v>323921.5984645562</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>354502.4274228527</v>
+        <v>354502.4274228528</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>354502.4274228528</v>
+        <v>354502.4274228527</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>409130.6314776411</v>
+        <v>409130.6314776412</v>
       </c>
     </row>
     <row r="12">
@@ -26316,7 +26316,7 @@
         <v>114192.2206839698</v>
       </c>
       <c r="C2" t="n">
-        <v>114192.2206839699</v>
+        <v>114192.2206839698</v>
       </c>
       <c r="D2" t="n">
         <v>114192.2206839698</v>
@@ -26328,7 +26328,7 @@
         <v>116838.592996125</v>
       </c>
       <c r="G2" t="n">
-        <v>128536.3503105974</v>
+        <v>128536.3503105975</v>
       </c>
       <c r="H2" t="n">
         <v>128536.3503105975</v>
@@ -26352,7 +26352,7 @@
         <v>149432.6927357765</v>
       </c>
       <c r="O2" t="n">
-        <v>149432.6927357765</v>
+        <v>149432.6927357764</v>
       </c>
       <c r="P2" t="n">
         <v>149432.6927357765</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>52888.83336114345</v>
+        <v>52888.83336114348</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>91531.29353731018</v>
+        <v>91531.29353731012</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14318.55649377947</v>
+        <v>14318.5564937795</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>55557.24815388155</v>
       </c>
       <c r="D4" t="n">
-        <v>55557.24815388156</v>
+        <v>55557.24815388155</v>
       </c>
       <c r="E4" t="n">
-        <v>10668.5848428186</v>
+        <v>10668.58484281859</v>
       </c>
       <c r="F4" t="n">
         <v>10668.5848428186</v>
@@ -26435,31 +26435,31 @@
         <v>9886.562763619077</v>
       </c>
       <c r="H4" t="n">
-        <v>9886.562763619078</v>
+        <v>9886.562763619077</v>
       </c>
       <c r="I4" t="n">
+        <v>8489.594036050577</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8489.594036050581</v>
+      </c>
+      <c r="K4" t="n">
         <v>8489.594036050583</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>8489.594036050579</v>
+      </c>
+      <c r="M4" t="n">
         <v>8489.594036050577</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>8489.594036050577</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8489.594036050581</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8489.594036050579</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8489.594036050581</v>
       </c>
       <c r="O4" t="n">
         <v>8489.594036050581</v>
       </c>
       <c r="P4" t="n">
-        <v>8489.594036050583</v>
+        <v>8489.594036050581</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>37756.58838009403</v>
       </c>
       <c r="H5" t="n">
-        <v>37756.58838009402</v>
+        <v>37756.58838009403</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142981.116266844</v>
+        <v>-143720.4728787596</v>
       </c>
       <c r="C6" t="n">
-        <v>-789.8156071340272</v>
+        <v>-1529.172219049695</v>
       </c>
       <c r="D6" t="n">
-        <v>-789.8156071340491</v>
+        <v>-1529.172219049695</v>
       </c>
       <c r="E6" t="n">
-        <v>-196567.9254952534</v>
+        <v>-197293.3538318419</v>
       </c>
       <c r="F6" t="n">
-        <v>73056.6708356434</v>
+        <v>72331.24249905489</v>
       </c>
       <c r="G6" t="n">
-        <v>28004.36580574089</v>
+        <v>27340.50461291273</v>
       </c>
       <c r="H6" t="n">
-        <v>80893.19916688435</v>
+        <v>80229.33797405621</v>
       </c>
       <c r="I6" t="n">
-        <v>3360.723952777866</v>
+        <v>2806.843509555997</v>
       </c>
       <c r="J6" t="n">
-        <v>-16122.4478549021</v>
+        <v>-16676.32829812404</v>
       </c>
       <c r="K6" t="n">
-        <v>94892.01749008808</v>
+        <v>94338.13704686615</v>
       </c>
       <c r="L6" t="n">
-        <v>94892.01749008805</v>
+        <v>94338.13704686612</v>
       </c>
       <c r="M6" t="n">
-        <v>94892.01749008808</v>
+        <v>94338.13704686615</v>
       </c>
       <c r="N6" t="n">
-        <v>94892.01749008808</v>
+        <v>94338.13704686615</v>
       </c>
       <c r="O6" t="n">
-        <v>80573.46099630858</v>
+        <v>80019.58055308659</v>
       </c>
       <c r="P6" t="n">
-        <v>94892.01749008811</v>
+        <v>94338.13704686615</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>382.6534502656805</v>
       </c>
       <c r="H3" t="n">
-        <v>382.6534502656804</v>
+        <v>382.6534502656805</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26801,13 +26801,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>483.7951178339176</v>
+        <v>483.7951178339177</v>
       </c>
       <c r="H4" t="n">
-        <v>483.7951178339176</v>
+        <v>483.7951178339177</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619342</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>84.04847782754075</v>
+        <v>84.04847782754069</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>59.49926031381324</v>
+        <v>59.49926031381335</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>59.49926031381324</v>
+        <v>59.49926031381335</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>59.49926031381324</v>
+        <v>59.49926031381335</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32478,31 +32478,31 @@
         <v>195.6782063285751</v>
       </c>
       <c r="L20" t="n">
-        <v>242.7561180012115</v>
+        <v>242.7561180012116</v>
       </c>
       <c r="M20" t="n">
-        <v>270.1129553727182</v>
+        <v>270.1129553727183</v>
       </c>
       <c r="N20" t="n">
-        <v>274.4836653850493</v>
+        <v>274.4836653850494</v>
       </c>
       <c r="O20" t="n">
-        <v>259.1871417827202</v>
+        <v>259.1871417827203</v>
       </c>
       <c r="P20" t="n">
         <v>221.2102290050962</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.1196694567959</v>
+        <v>166.119669456796</v>
       </c>
       <c r="R20" t="n">
-        <v>96.63057204121226</v>
+        <v>96.63057204121228</v>
       </c>
       <c r="S20" t="n">
         <v>35.05413265499174</v>
       </c>
       <c r="T20" t="n">
-        <v>6.733931572012123</v>
+        <v>6.733931572012124</v>
       </c>
       <c r="U20" t="n">
         <v>0.1230644262160981</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8230659118922183</v>
+        <v>0.8230659118922184</v>
       </c>
       <c r="H21" t="n">
         <v>7.949083938538005</v>
@@ -32551,13 +32551,13 @@
         <v>28.33801494892068</v>
       </c>
       <c r="J21" t="n">
-        <v>77.76167898276437</v>
+        <v>77.76167898276438</v>
       </c>
       <c r="K21" t="n">
         <v>132.907095079543</v>
       </c>
       <c r="L21" t="n">
-        <v>178.7099910887029</v>
+        <v>178.709991088703</v>
       </c>
       <c r="M21" t="n">
         <v>208.5461303947958</v>
@@ -32566,7 +32566,7 @@
         <v>214.0657259179678</v>
       </c>
       <c r="O21" t="n">
-        <v>195.828318080777</v>
+        <v>195.8283180807771</v>
       </c>
       <c r="P21" t="n">
         <v>157.1694897893132</v>
@@ -32584,7 +32584,7 @@
         <v>3.317533215039247</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05414907315080385</v>
+        <v>0.05414907315080386</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6900308119545056</v>
+        <v>0.6900308119545057</v>
       </c>
       <c r="H22" t="n">
         <v>6.1350012190137</v>
@@ -32630,37 +32630,37 @@
         <v>20.75110841768641</v>
       </c>
       <c r="J22" t="n">
-        <v>48.78517840518354</v>
+        <v>48.78517840518355</v>
       </c>
       <c r="K22" t="n">
-        <v>80.16903433435073</v>
+        <v>80.16903433435074</v>
       </c>
       <c r="L22" t="n">
         <v>102.5887627154908</v>
       </c>
       <c r="M22" t="n">
-        <v>108.1654662775594</v>
+        <v>108.1654662775595</v>
       </c>
       <c r="N22" t="n">
-        <v>105.5935332511836</v>
+        <v>105.5935332511837</v>
       </c>
       <c r="O22" t="n">
-        <v>97.5327187660787</v>
+        <v>97.53271876607872</v>
       </c>
       <c r="P22" t="n">
-        <v>83.45609020220671</v>
+        <v>83.45609020220672</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.78067099011774</v>
+        <v>57.78067099011775</v>
       </c>
       <c r="R22" t="n">
-        <v>31.02629450842712</v>
+        <v>31.02629450842713</v>
       </c>
       <c r="S22" t="n">
         <v>12.02535515015261</v>
       </c>
       <c r="T22" t="n">
-        <v>2.948313469260159</v>
+        <v>2.94831346926016</v>
       </c>
       <c r="U22" t="n">
         <v>0.03763804428842762</v>
@@ -33970,7 +33970,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -34701,19 +34701,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35099,19 +35099,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35254,13 +35254,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35336,22 +35336,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35421,10 +35421,10 @@
         <v>236.900425020524</v>
       </c>
       <c r="N11" t="n">
-        <v>240.7337215691252</v>
+        <v>240.7337215691251</v>
       </c>
       <c r="O11" t="n">
-        <v>227.318026873075</v>
+        <v>227.3180268730753</v>
       </c>
       <c r="P11" t="n">
         <v>194.0106767477459</v>
@@ -35433,7 +35433,7 @@
         <v>145.6939384646737</v>
       </c>
       <c r="R11" t="n">
-        <v>84.74907675180566</v>
+        <v>84.74907675180543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>51.18057382505155</v>
       </c>
       <c r="J12" t="n">
-        <v>396.0369556447445</v>
+        <v>395.4481201532384</v>
       </c>
       <c r="K12" t="n">
-        <v>116.565113543484</v>
+        <v>116.5651135434841</v>
       </c>
       <c r="L12" t="n">
         <v>156.7361801876899</v>
       </c>
       <c r="M12" t="n">
-        <v>182.9037295110159</v>
+        <v>182.903729511016</v>
       </c>
       <c r="N12" t="n">
-        <v>187.7446469841393</v>
+        <v>187.7446469841394</v>
       </c>
       <c r="O12" t="n">
         <v>171.7496730964874</v>
       </c>
       <c r="P12" t="n">
-        <v>137.8442543785807</v>
+        <v>137.8442543785809</v>
       </c>
       <c r="Q12" t="n">
         <v>92.14523357605344</v>
       </c>
       <c r="R12" t="n">
-        <v>162.5863600071607</v>
+        <v>163.1751954986662</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.78665376469155</v>
+        <v>116.9880106902049</v>
       </c>
       <c r="K13" t="n">
-        <v>347.8454081721616</v>
+        <v>70.31161567606506</v>
       </c>
       <c r="L13" t="n">
+        <v>89.97466062334649</v>
+      </c>
+      <c r="M13" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M13" t="n">
-        <v>94.86566424901332</v>
-      </c>
       <c r="N13" t="n">
-        <v>92.60997078835715</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O13" t="n">
-        <v>85.54029738117833</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P13" t="n">
-        <v>424.2115665691178</v>
+        <v>73.19450195261106</v>
       </c>
       <c r="Q13" t="n">
-        <v>161.8770222435373</v>
+        <v>50.67607918562089</v>
       </c>
       <c r="R13" t="n">
         <v>6.007722421746784</v>
@@ -35670,7 +35670,7 @@
         <v>145.6939384646737</v>
       </c>
       <c r="R14" t="n">
-        <v>84.74907675180566</v>
+        <v>84.74907675180543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>51.18057382505155</v>
+        <v>24.85363123873074</v>
       </c>
       <c r="J15" t="n">
-        <v>68.20026375968141</v>
+        <v>396.0369556447444</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201044</v>
+        <v>116.565113543484</v>
       </c>
       <c r="L15" t="n">
-        <v>176.2532926046266</v>
+        <v>156.7361801876899</v>
       </c>
       <c r="M15" t="n">
-        <v>182.903729511016</v>
+        <v>182.9037295110159</v>
       </c>
       <c r="N15" t="n">
-        <v>187.7446469841394</v>
+        <v>187.7446469841393</v>
       </c>
       <c r="O15" t="n">
         <v>171.7496730964874</v>
       </c>
       <c r="P15" t="n">
-        <v>137.8442543785809</v>
+        <v>137.8442543785807</v>
       </c>
       <c r="Q15" t="n">
-        <v>92.14523357605344</v>
+        <v>117.8833406708688</v>
       </c>
       <c r="R15" t="n">
         <v>163.1751954986662</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.78665376469156</v>
+        <v>130.2408812037722</v>
       </c>
       <c r="K16" t="n">
-        <v>70.31161567606506</v>
+        <v>223.2873033542595</v>
       </c>
       <c r="L16" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>92.60997078835703</v>
       </c>
       <c r="O16" t="n">
-        <v>164.17601754886</v>
+        <v>85.54029738117833</v>
       </c>
       <c r="P16" t="n">
         <v>73.19450195261106</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.67607918562089</v>
+        <v>220.5677709677748</v>
       </c>
       <c r="R16" t="n">
         <v>6.007722421746784</v>
@@ -35886,7 +35886,7 @@
         <v>130.5617418069821</v>
       </c>
       <c r="K17" t="n">
-        <v>195.6782063285751</v>
+        <v>195.6782063285752</v>
       </c>
       <c r="L17" t="n">
         <v>242.7561180012115</v>
@@ -35907,7 +35907,7 @@
         <v>166.1196694567959</v>
       </c>
       <c r="R17" t="n">
-        <v>96.63057204121219</v>
+        <v>96.63057204121242</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>54.66495753524149</v>
+        <v>28.33801494892068</v>
       </c>
       <c r="J18" t="n">
-        <v>77.76167898276438</v>
+        <v>77.76167898276439</v>
       </c>
       <c r="K18" t="n">
         <v>132.907095079543</v>
@@ -35977,16 +35977,16 @@
         <v>214.0657259179678</v>
       </c>
       <c r="O18" t="n">
-        <v>195.828318080777</v>
+        <v>195.8283180807771</v>
       </c>
       <c r="P18" t="n">
         <v>157.1694897893133</v>
       </c>
       <c r="Q18" t="n">
-        <v>262.9392498704199</v>
+        <v>407.6225339661746</v>
       </c>
       <c r="R18" t="n">
-        <v>169.4586268109526</v>
+        <v>51.10228530151858</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>80.16903433435074</v>
       </c>
       <c r="L19" t="n">
-        <v>102.5887627154908</v>
+        <v>483.7951178339177</v>
       </c>
       <c r="M19" t="n">
-        <v>483.7951178339177</v>
+        <v>108.1654662775594</v>
       </c>
       <c r="N19" t="n">
         <v>483.7951178339176</v>
       </c>
       <c r="O19" t="n">
-        <v>395.5488783233475</v>
+        <v>483.7951178339176</v>
       </c>
       <c r="P19" t="n">
-        <v>83.45609020220672</v>
+        <v>159.5248389117221</v>
       </c>
       <c r="Q19" t="n">
-        <v>227.6723627722715</v>
+        <v>57.78067099011764</v>
       </c>
       <c r="R19" t="n">
         <v>9.822651426745296</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>58.8928946670702</v>
+        <v>58.89289466707021</v>
       </c>
       <c r="J20" t="n">
         <v>130.5617418069821</v>
       </c>
       <c r="K20" t="n">
-        <v>195.6782063285751</v>
+        <v>195.6782063285752</v>
       </c>
       <c r="L20" t="n">
         <v>242.7561180012115</v>
@@ -36135,7 +36135,7 @@
         <v>274.4836653850493</v>
       </c>
       <c r="O20" t="n">
-        <v>259.1871417827201</v>
+        <v>259.1871417827203</v>
       </c>
       <c r="P20" t="n">
         <v>221.2102290050962</v>
@@ -36144,7 +36144,7 @@
         <v>166.1196694567959</v>
       </c>
       <c r="R20" t="n">
-        <v>96.63057204121264</v>
+        <v>96.63057204121242</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>28.33801494892068</v>
       </c>
       <c r="J21" t="n">
-        <v>380.3205712835397</v>
+        <v>77.76167898276439</v>
       </c>
       <c r="K21" t="n">
         <v>132.907095079543</v>
@@ -36211,16 +36211,16 @@
         <v>208.5461303947958</v>
       </c>
       <c r="N21" t="n">
-        <v>214.0657259179677</v>
+        <v>214.0657259179678</v>
       </c>
       <c r="O21" t="n">
         <v>195.8283180807771</v>
       </c>
       <c r="P21" t="n">
-        <v>157.169489789313</v>
+        <v>157.1694897893133</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.0636416653997</v>
+        <v>407.6225339661746</v>
       </c>
       <c r="R21" t="n">
         <v>51.10228530151858</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>136.2394058442642</v>
+        <v>48.78517840518355</v>
       </c>
       <c r="K22" t="n">
-        <v>357.7028268304473</v>
+        <v>80.16903433435074</v>
       </c>
       <c r="L22" t="n">
-        <v>102.5887627154908</v>
+        <v>184.2342149870748</v>
       </c>
       <c r="M22" t="n">
-        <v>416.8232574560093</v>
+        <v>483.7951178339177</v>
       </c>
       <c r="N22" t="n">
         <v>483.7951178339176</v>
       </c>
       <c r="O22" t="n">
-        <v>97.53271876607869</v>
+        <v>483.7951178339176</v>
       </c>
       <c r="P22" t="n">
         <v>83.45609020220672</v>
       </c>
       <c r="Q22" t="n">
-        <v>227.6723627722715</v>
+        <v>57.78067099011764</v>
       </c>
       <c r="R22" t="n">
-        <v>9.822651426745288</v>
+        <v>9.822651426745296</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>296.14752065127</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36609,7 +36609,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36691,13 +36691,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>143.5225095507259</v>
       </c>
       <c r="K28" t="n">
-        <v>167.0540751263759</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36831,13 +36831,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36855,7 +36855,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409513</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37083,7 +37083,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548414</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>128.5954242524321</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
         <v>547.5562458447062</v>
@@ -37247,7 +37247,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,31 +37305,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062841</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37402,13 +37402,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>198.8376634256979</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>422.0603989642946</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125712</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37706,16 +37706,16 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409517</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561041</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
@@ -37779,16 +37779,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>104.3035844648728</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>388.2942256789524</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>266.5900650540092</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>147.5459694702542</v>
       </c>
       <c r="Q46" t="n">
         <v>240.36368292423</v>
